--- a/content/terrestrial/data/RLE index scores bootstrap.xlsx
+++ b/content/terrestrial/data/RLE index scores bootstrap.xlsx
@@ -418,10 +418,10 @@
         <v>0.8909090909090909</v>
       </c>
       <c r="F2">
-        <v>0.8090909090909091</v>
+        <v>0.8089772727272727</v>
       </c>
       <c r="G2">
-        <v>0.9590909090909091</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         <v>0.8545454545454545</v>
       </c>
       <c r="F4">
-        <v>0.7636363636363637</v>
+        <v>0.7681818181818182</v>
       </c>
       <c r="G4">
         <v>0.9363636363636364</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -538,7 +538,7 @@
         <v>0.8555555555555556</v>
       </c>
       <c r="F6">
-        <v>0.7219444444444445</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G6">
         <v>0.9666666666666667</v>
@@ -598,7 +598,7 @@
         <v>0.8111111111111111</v>
       </c>
       <c r="F8">
-        <v>0.6555555555555556</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G8">
         <v>0.9333333333333333</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -628,10 +628,10 @@
         <v>0.8111111111111111</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666667</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="G9">
-        <v>0.9333333333333333</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>0.9066666666666666</v>
       </c>
       <c r="F10">
-        <v>0.76</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="F18">
-        <v>0.5698412698412698</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G18">
         <v>0.6968253968253968</v>
@@ -931,7 +931,7 @@
         <v>0.553968253968254</v>
       </c>
       <c r="G19">
-        <v>0.6825396825396826</v>
+        <v>0.680952380952381</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>0.5523809523809524</v>
       </c>
       <c r="G20">
-        <v>0.6825396825396826</v>
+        <v>0.680992063492063</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C21">
         <v>241</v>
@@ -988,10 +988,10 @@
         <v>0.6174603174603175</v>
       </c>
       <c r="F21">
-        <v>0.553968253968254</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="G21">
-        <v>0.680952380952381</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1018,10 +1018,10 @@
         <v>0.8465753424657534</v>
       </c>
       <c r="F22">
-        <v>0.7863013698630137</v>
+        <v>0.7890410958904109</v>
       </c>
       <c r="G22">
-        <v>0.8986986301369853</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -1108,10 +1108,10 @@
         <v>0.8082191780821918</v>
       </c>
       <c r="F25">
-        <v>0.7424657534246575</v>
+        <v>0.7397260273972603</v>
       </c>
       <c r="G25">
-        <v>0.8712328767123287</v>
+        <v>0.8684931506849315</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0.9085106382978724</v>
       </c>
       <c r="F34">
-        <v>0.8595744680851064</v>
+        <v>0.8617021276595744</v>
       </c>
       <c r="G34">
         <v>0.951063829787234</v>
@@ -1438,7 +1438,7 @@
         <v>0.874468085106383</v>
       </c>
       <c r="F36">
-        <v>0.8212765957446808</v>
+        <v>0.823404255319149</v>
       </c>
       <c r="G36">
         <v>0.9234042553191489</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C37">
         <v>59</v>
@@ -1528,7 +1528,7 @@
         <v>0.91875</v>
       </c>
       <c r="F39">
-        <v>0.859375</v>
+        <v>0.85625</v>
       </c>
       <c r="G39">
         <v>0.96875</v>
@@ -1561,7 +1561,7 @@
         <v>0.85625</v>
       </c>
       <c r="G40">
-        <v>0.9688281249999988</v>
+        <v>0.96875</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C41">
         <v>26</v>
@@ -1588,10 +1588,10 @@
         <v>0.91875</v>
       </c>
       <c r="F41">
-        <v>0.859375</v>
+        <v>0.85625</v>
       </c>
       <c r="G41">
-        <v>0.975</v>
+        <v>0.96875</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1613,10 +1613,10 @@
         <v>0.8215982721382289</v>
       </c>
       <c r="F42">
-        <v>0.7956803455723542</v>
+        <v>0.7930777537796976</v>
       </c>
       <c r="G42">
-        <v>0.8488120950323974</v>
+        <v>0.8479481641468682</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1638,10 +1638,10 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="F43">
-        <v>0.7684665226781857</v>
+        <v>0.7706263498920086</v>
       </c>
       <c r="G43">
-        <v>0.8280885529157666</v>
+        <v>0.827656587473002</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="F44">
-        <v>0.7675917926565874</v>
+        <v>0.767170626349892</v>
       </c>
       <c r="G44">
-        <v>0.8254859611231101</v>
+        <v>0.824622030237581</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="45">
       <c r="B45">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C45">
         <v>476</v>
@@ -1688,10 +1688,10 @@
         <v>0.7943844492440605</v>
       </c>
       <c r="F45">
-        <v>0.7654427645788338</v>
+        <v>0.7658747300215982</v>
       </c>
       <c r="G45">
-        <v>0.8228941684665227</v>
+        <v>0.8233261339092872</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
